--- a/trip schedule.xlsx
+++ b/trip schedule.xlsx
@@ -24,9 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>0440</t>
+  </si>
+  <si>
+    <t>tester1</t>
   </si>
 </sst>
 </file>
@@ -363,7 +366,7 @@
   <dimension ref="A2:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -398,7 +401,9 @@
       <c r="B5" s="4">
         <v>1430</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
